--- a/metro Passenger flow.xlsx
+++ b/metro Passenger flow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>日期</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>津</t>
+  </si>
+  <si>
+    <t>沈</t>
   </si>
   <si>
     <t>郑</t>
@@ -110,129 +113,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,7 +130,128 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,31 +266,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,31 +290,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,49 +302,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,19 +320,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,7 +422,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,19 +446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +457,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -468,6 +521,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,65 +557,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -562,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,133 +577,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1030,12 +1033,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y1760"/>
+  <dimension ref="A1:Z1760"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Y2" sqref="Y2"/>
+      <selection pane="bottomLeft" activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1043,7 +1046,7 @@
     <col min="1" max="1" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1119,8 +1122,11 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="1">
         <v>43398</v>
       </c>
@@ -1157,47 +1163,47 @@
       <c r="L2">
         <v>131.5</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>73.78</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>90.05</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>68.64</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>53.34</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>56.2</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>38.67</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>44.19</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>34.6</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>22.82</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>11.67</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>16.38</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>10.86</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>3.1832</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:25">
       <c r="A3" s="1">
         <v>43397</v>
       </c>
@@ -1234,44 +1240,44 @@
       <c r="L3">
         <v>132.8</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>73.6</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>91.6</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>67.76</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>53.79</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>55.5</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>40.61</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>45.17</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>34.2</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>22.19</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>11.69</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>16.48</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:25">
       <c r="A4" s="1">
         <v>43396</v>
       </c>
@@ -1308,44 +1314,44 @@
       <c r="L4">
         <v>132.6</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>74.5</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>90.56</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>70.96</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>53.66</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>53.8</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>39.94</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>44.32</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>32.9</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>22.63</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>11.65</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>16.31</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>10.82</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:25">
       <c r="A5" s="1">
         <v>43395</v>
       </c>
@@ -1382,44 +1388,44 @@
       <c r="L5">
         <v>130.8</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>79.2</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>85.57</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>72.26</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>53.7</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>56.3</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>40.29</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>44.75</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>32.5</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>23.46</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>12.23</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>16.74</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>10.83</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:25">
       <c r="A6" s="1">
         <v>43394</v>
       </c>
@@ -1456,44 +1462,44 @@
       <c r="L6">
         <v>103.06</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>97.13</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>96.07</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>77.2</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>63.56</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>58.9</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>49.02</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>45.36</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>35.5</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>25.09</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>17.9</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>16.55</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>13.8</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:25">
       <c r="A7" s="1">
         <v>43393</v>
       </c>
@@ -1527,44 +1533,44 @@
       <c r="K7">
         <v>159.87</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>100.52</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>101.87</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>75.88</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>73.05</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>62.9</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>51.84</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>48.12</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>36.7</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>25.31</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>15.33</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>17.38</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>14.7</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:25">
       <c r="A8" s="1">
         <v>43392</v>
       </c>
@@ -1598,44 +1604,44 @@
       <c r="K8">
         <v>279.48</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>96.38</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>104.62</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>81.01</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>69.35</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>65</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>49.28</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>51.18</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>39.5</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>27.5</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>14.55</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>19.63</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>12.46</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:25">
       <c r="A9" s="1">
         <v>43391</v>
       </c>
@@ -1669,44 +1675,44 @@
       <c r="K9">
         <v>156.39</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>76.05</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>90.41</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>67.38</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>59.47</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>55.5</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>39.68</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>44.88</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>33.2</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>23.21</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>11.52</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>16.63</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>10.96</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:25">
       <c r="A10" s="1">
         <v>43390</v>
       </c>
@@ -1740,44 +1746,44 @@
       <c r="K10">
         <v>158.63</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>74.54</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>90.68</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>65.23</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>52.98</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>56.3</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>40.84</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>44.48</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>33.3</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>22.5</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>10.14</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>16.56</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>10.46</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:25">
       <c r="A11" s="1">
         <v>43389</v>
       </c>
@@ -1811,44 +1817,44 @@
       <c r="K11">
         <v>155.37</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>74.71</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>88.02</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>65.04</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>55.84</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>55.7</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>40.15</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>43.74</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>30.7</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>23.95</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>10.9</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>16.28</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>10.62</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:25">
       <c r="A12" s="1">
         <v>43388</v>
       </c>
@@ -1882,44 +1888,44 @@
       <c r="K12">
         <v>154.7</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>77.96</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>88.06</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>62.18</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>55.03</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>56.5</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>41.01</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>44.37</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>32.2</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>23.47</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>11.37</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>16.39</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>10.8</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:25">
       <c r="A13" s="1">
         <v>43387</v>
       </c>
@@ -1953,44 +1959,44 @@
       <c r="K13">
         <v>144.59</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>94.84</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>91.86</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>61.68</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>63.68</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>59.2</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>45.97</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>42.43</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>34.2</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>23.79</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>16.66</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>14.54</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>12.85</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:25">
       <c r="A14" s="1">
         <v>43386</v>
       </c>
@@ -2024,66 +2030,405 @@
       <c r="K14">
         <v>159.72</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>99.65</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>100.18</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>75.14</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>75.46</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>61.2</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>50.05</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>45.06</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>35.3</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>25.08</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>14.81</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>16.77</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>14.3</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:25">
       <c r="A15" s="1">
         <v>43385</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15">
+        <v>1291.8</v>
+      </c>
+      <c r="C15">
+        <v>1233.8</v>
+      </c>
+      <c r="D15">
+        <v>947.6</v>
+      </c>
+      <c r="E15">
+        <v>596.15</v>
+      </c>
+      <c r="F15">
+        <v>382.58</v>
+      </c>
+      <c r="G15">
+        <v>371.2</v>
+      </c>
+      <c r="H15">
+        <v>334.9</v>
+      </c>
+      <c r="I15">
+        <v>275</v>
+      </c>
+      <c r="J15">
+        <v>233.36</v>
+      </c>
+      <c r="K15">
+        <v>176.1</v>
+      </c>
+      <c r="L15">
+        <v>134.05</v>
+      </c>
+      <c r="N15">
+        <v>90.31</v>
+      </c>
+      <c r="O15">
+        <v>100.31</v>
+      </c>
+      <c r="P15">
+        <v>77.1</v>
+      </c>
+      <c r="Q15">
+        <v>67.18</v>
+      </c>
+      <c r="R15">
+        <v>65.7</v>
+      </c>
+      <c r="S15">
+        <v>46.98</v>
+      </c>
+      <c r="T15">
+        <v>48.7</v>
+      </c>
+      <c r="U15">
+        <v>38.2</v>
+      </c>
+      <c r="V15">
+        <v>26.21</v>
+      </c>
+      <c r="W15">
+        <v>14</v>
+      </c>
+      <c r="X15">
+        <v>18.87</v>
+      </c>
+      <c r="Y15">
+        <v>12.46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="1">
         <v>43384</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1221.74</v>
+      </c>
+      <c r="C16">
+        <v>1160.4</v>
+      </c>
+      <c r="D16">
+        <v>852.1</v>
+      </c>
+      <c r="E16">
+        <v>555.28</v>
+      </c>
+      <c r="F16">
+        <v>343.75</v>
+      </c>
+      <c r="G16">
+        <v>327.2</v>
+      </c>
+      <c r="H16">
+        <v>305.31</v>
+      </c>
+      <c r="I16">
+        <v>248.5</v>
+      </c>
+      <c r="J16">
+        <v>199.52</v>
+      </c>
+      <c r="K16">
+        <v>154.32</v>
+      </c>
+      <c r="N16">
+        <v>73.28</v>
+      </c>
+      <c r="O16">
+        <v>88.81</v>
+      </c>
+      <c r="P16">
+        <v>66.29</v>
+      </c>
+      <c r="Q16">
+        <v>53.41</v>
+      </c>
+      <c r="R16">
+        <v>54.5</v>
+      </c>
+      <c r="S16">
+        <v>39.26</v>
+      </c>
+      <c r="T16">
+        <v>44.37</v>
+      </c>
+      <c r="U16">
+        <v>31.9</v>
+      </c>
+      <c r="V16">
+        <v>22.71</v>
+      </c>
+      <c r="W16">
+        <v>11.18</v>
+      </c>
+      <c r="X16">
+        <v>15.88</v>
+      </c>
+      <c r="Y16">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="1">
         <v>43383</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1200.64</v>
+      </c>
+      <c r="C17">
+        <v>1154.6</v>
+      </c>
+      <c r="D17">
+        <v>822.38</v>
+      </c>
+      <c r="E17">
+        <v>543.84</v>
+      </c>
+      <c r="F17">
+        <v>350.56</v>
+      </c>
+      <c r="G17">
+        <v>332.6</v>
+      </c>
+      <c r="H17">
+        <v>308.62</v>
+      </c>
+      <c r="I17">
+        <v>252.7</v>
+      </c>
+      <c r="J17">
+        <v>201.63</v>
+      </c>
+      <c r="K17">
+        <v>151.98</v>
+      </c>
+      <c r="N17">
+        <v>73.98</v>
+      </c>
+      <c r="O17">
+        <v>88.43</v>
+      </c>
+      <c r="P17">
+        <v>65.64</v>
+      </c>
+      <c r="Q17">
+        <v>53.64</v>
+      </c>
+      <c r="R17">
+        <v>54.8</v>
+      </c>
+      <c r="S17">
+        <v>40.15</v>
+      </c>
+      <c r="T17">
+        <v>44.1</v>
+      </c>
+      <c r="U17">
+        <v>31.5</v>
+      </c>
+      <c r="V17">
+        <v>23.8</v>
+      </c>
+      <c r="W17">
+        <v>10.57</v>
+      </c>
+      <c r="X17">
+        <v>16.04</v>
+      </c>
+      <c r="Y17">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="1">
         <v>43382</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1180.69</v>
+      </c>
+      <c r="C18">
+        <v>1116.5</v>
+      </c>
+      <c r="D18">
+        <v>866.6</v>
+      </c>
+      <c r="E18">
+        <v>536.95</v>
+      </c>
+      <c r="F18">
+        <v>350.27</v>
+      </c>
+      <c r="G18">
+        <v>318.2</v>
+      </c>
+      <c r="H18">
+        <v>301.56</v>
+      </c>
+      <c r="I18">
+        <v>242.7</v>
+      </c>
+      <c r="J18">
+        <v>202.95</v>
+      </c>
+      <c r="K18">
+        <v>150.38</v>
+      </c>
+      <c r="M18">
+        <v>89.68</v>
+      </c>
+      <c r="N18">
+        <v>74.94</v>
+      </c>
+      <c r="O18">
+        <v>84.93</v>
+      </c>
+      <c r="P18">
+        <v>60.63</v>
+      </c>
+      <c r="Q18">
+        <v>52.29</v>
+      </c>
+      <c r="R18">
+        <v>54.8</v>
+      </c>
+      <c r="S18">
+        <v>39.47</v>
+      </c>
+      <c r="T18">
+        <v>39.83</v>
+      </c>
+      <c r="U18">
+        <v>29.88</v>
+      </c>
+      <c r="V18">
+        <v>22.6</v>
+      </c>
+      <c r="W18">
+        <v>11.43</v>
+      </c>
+      <c r="X18">
+        <v>16.24</v>
+      </c>
+      <c r="Y18">
+        <v>10.68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="1">
         <v>43381</v>
+      </c>
+      <c r="B19">
+        <v>1142.72</v>
+      </c>
+      <c r="C19">
+        <v>1093</v>
+      </c>
+      <c r="D19">
+        <v>797.9</v>
+      </c>
+      <c r="E19">
+        <v>539.18</v>
+      </c>
+      <c r="F19">
+        <v>348.66</v>
+      </c>
+      <c r="G19">
+        <v>326.5</v>
+      </c>
+      <c r="H19">
+        <v>311.21</v>
+      </c>
+      <c r="I19">
+        <v>244</v>
+      </c>
+      <c r="J19">
+        <v>207.72</v>
+      </c>
+      <c r="K19">
+        <v>153.15</v>
+      </c>
+      <c r="M19">
+        <v>94.6</v>
+      </c>
+      <c r="N19">
+        <v>79.52</v>
+      </c>
+      <c r="O19">
+        <v>85.63</v>
+      </c>
+      <c r="P19">
+        <v>67.68</v>
+      </c>
+      <c r="Q19">
+        <v>55.67</v>
+      </c>
+      <c r="R19">
+        <v>57.7</v>
+      </c>
+      <c r="S19">
+        <v>42.35</v>
+      </c>
+      <c r="T19">
+        <v>44.82</v>
+      </c>
+      <c r="U19">
+        <v>30.66</v>
+      </c>
+      <c r="V19">
+        <v>23.43</v>
+      </c>
+      <c r="W19">
+        <v>11.79</v>
+      </c>
+      <c r="X19">
+        <v>16.95</v>
+      </c>
+      <c r="Y19">
+        <v>10.85</v>
       </c>
     </row>
     <row r="20" spans="1:1">
